--- a/trials_identity.xlsx
+++ b/trials_identity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\gits\alej_colour_self_friend_other\lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\gits\alej_colour_self_friend_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C45903-E137-42AC-A4C0-16D84291B09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A23B52-5F66-4C12-8A08-04CE3FAF344E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1155" windowWidth="21600" windowHeight="11175" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="-21540" windowWidth="12360" windowHeight="19485" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>word</t>
   </si>
@@ -75,15 +75,6 @@
     <t>greenother</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>Jokerman</t>
-  </si>
-  <si>
-    <t>JOKERMAN</t>
-  </si>
-  <si>
     <t>$font_main1</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
   </si>
   <si>
     <t>$font_main3</t>
-  </si>
-  <si>
-    <t>$font_main5</t>
   </si>
   <si>
     <t>font_variable</t>
@@ -333,15 +321,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -351,7 +339,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -366,87 +354,187 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
+      <c r="F10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
